--- a/Report-Latex/Testing-data/GBPUSD.xlsx
+++ b/Report-Latex/Testing-data/GBPUSD.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>GBP</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>10DBF</t>
+  </si>
+  <si>
+    <t>Mid</t>
   </si>
 </sst>
 </file>
@@ -981,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:Q8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1088,6 +1091,21 @@
       <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
